--- a/resources/crm/MIT045 - Roteiro de Testes -EcoAgro CRM.xlsx
+++ b/resources/crm/MIT045 - Roteiro de Testes -EcoAgro CRM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clientes\brb\ecoagro\resources\crm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9149D0D4-807A-4CEB-924D-867322C4BA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BE486B-C7F8-412A-801C-00E5D3C34469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Roteiro de Testes de Processos - Faturamento</t>
   </si>
@@ -145,30 +145,9 @@
     <t>Pré-requisitos</t>
   </si>
   <si>
-    <t>Separar Cópias de Documentos para venda normal/Serviços</t>
-  </si>
-  <si>
     <t>Manual</t>
   </si>
   <si>
-    <t>Separar Cópias de Documentos para demonstração</t>
-  </si>
-  <si>
-    <t>Separar Cópias de Documentos para transferência</t>
-  </si>
-  <si>
-    <t>Separar Cópias de Documentos para venda de ativo</t>
-  </si>
-  <si>
-    <t>Separar Cópias de Documentos  para conserto</t>
-  </si>
-  <si>
-    <t>Separar Cópias de Documentos para empréstimo</t>
-  </si>
-  <si>
-    <t>Separar Cópias de Documentos para devolução a fornecedor</t>
-  </si>
-  <si>
     <t>Cadastros</t>
   </si>
   <si>
@@ -178,24 +157,12 @@
     <t>Vendedores cadastrados relacionados</t>
   </si>
   <si>
-    <t>Completo</t>
-  </si>
-  <si>
-    <t>TES cadastradas relacionados ao documentos acima.</t>
-  </si>
-  <si>
     <t>Condições de pagamento cadastradas relacionados ao documentos acima.</t>
   </si>
   <si>
-    <t>Transportadoras cadastradas relacionados ao documentos acima.</t>
-  </si>
-  <si>
     <t>Processos Principais</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Consultas e Relatórios</t>
   </si>
   <si>
@@ -209,6 +176,24 @@
   </si>
   <si>
     <t>MATA030</t>
+  </si>
+  <si>
+    <t>Separar Cópias de Documentos de Propostas feitas atualmente</t>
+  </si>
+  <si>
+    <t>CRMA520</t>
+  </si>
+  <si>
+    <t>MATA360</t>
+  </si>
+  <si>
+    <t>CRMA110</t>
+  </si>
+  <si>
+    <t>Parceiros (Investidores)</t>
+  </si>
+  <si>
+    <t>CRMA500</t>
   </si>
 </sst>
 </file>
@@ -846,299 +831,299 @@
   </cellStyleXfs>
   <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1832,6 +1817,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-3839-467A-84D8-2AF461F7D6CE}"/>
                 </c:ext>
@@ -1863,6 +1849,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-3839-467A-84D8-2AF461F7D6CE}"/>
                 </c:ext>
@@ -1894,6 +1881,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-3839-467A-84D8-2AF461F7D6CE}"/>
                 </c:ext>
@@ -1925,6 +1913,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-3839-467A-84D8-2AF461F7D6CE}"/>
                 </c:ext>
@@ -1956,6 +1945,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-3839-467A-84D8-2AF461F7D6CE}"/>
                 </c:ext>
@@ -2591,314 +2581,314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="16"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="22"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="23"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="23"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="11" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="29">
+      <c r="I6" s="88"/>
+      <c r="J6" s="20">
         <f ca="1">TODAY()</f>
         <v>44810</v>
       </c>
-      <c r="K6" s="23"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="23"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="31" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="33"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="36">
+      <c r="A9" s="24"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="26">
         <f>COUNTIF(Faturamento!J13:J40,I9)</f>
         <v>25</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="28">
         <f>(H9/H14)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="39"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="36">
+      <c r="A10" s="24"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="26">
         <f>COUNTIF(Faturamento!J13:J40,I10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="28">
         <f>(H10/H14)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="39"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="36">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="26">
         <f>COUNTIF(Faturamento!J13:J40,I11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="46" t="s">
+      <c r="I11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="28">
         <f>(H11/H14)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="39"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="36">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="26">
         <f>COUNTIF(Faturamento!J13:J40,I12)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="28">
         <f>(H12/H14)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="39"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="36">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="26">
         <f>COUNTIF(Faturamento!J13:J40,I13)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I13" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="28">
         <f>(H13/H14)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="39"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="59">
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="49">
         <f>SUM(H9:H13)</f>
         <v>25</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61">
+      <c r="I14" s="50"/>
+      <c r="J14" s="51">
         <f>SUM(J9:J13)</f>
         <v>1</v>
       </c>
-      <c r="K14" s="39"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="16"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
     </row>
     <row r="19" spans="1:11" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2954,1036 +2944,1022 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="65" customWidth="1"/>
-    <col min="2" max="2" width="95.33203125" style="66" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="66" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="66" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="66" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="66" customWidth="1"/>
-    <col min="8" max="9" width="10.44140625" style="66" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="66" customWidth="1"/>
-    <col min="11" max="11" width="49.44140625" style="66" customWidth="1"/>
-    <col min="12" max="1024" width="9.109375" style="66"/>
+    <col min="1" max="1" width="7.6640625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="95.33203125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="56" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="55" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="56" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="56" customWidth="1"/>
+    <col min="8" max="9" width="10.44140625" style="56" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="56" customWidth="1"/>
+    <col min="11" max="11" width="49.44140625" style="56" customWidth="1"/>
+    <col min="12" max="1024" width="9.109375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="72" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="71"/>
-    </row>
-    <row r="2" spans="1:11" s="72" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="71"/>
-    </row>
-    <row r="3" spans="1:11" s="72" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="71"/>
-    </row>
-    <row r="4" spans="1:11" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="71"/>
-    </row>
-    <row r="5" spans="1:11" s="72" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" s="72" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-    </row>
-    <row r="8" spans="1:11" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5" t="s">
+    <row r="1" spans="1:11" s="62" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="61"/>
+    </row>
+    <row r="2" spans="1:11" s="62" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="61"/>
+    </row>
+    <row r="3" spans="1:11" s="62" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" s="62" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+    </row>
+    <row r="6" spans="1:11" s="62" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+    </row>
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" s="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" s="73" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="77"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="80" t="s">
+      <c r="G11" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="80" t="s">
+      <c r="H11" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="82" t="s">
+      <c r="J11" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="82" t="s">
+      <c r="K11" s="69" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="70"/>
+      <c r="B12" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
+      <c r="A13" s="71">
         <v>1</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87">
+      <c r="D13" s="73"/>
+      <c r="E13" s="74">
         <v>3</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="89" t="s">
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="90"/>
+      <c r="K13" s="77"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="84">
+      <c r="A14" s="71">
         <f t="shared" ref="A14:A19" si="0">A13+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87">
+      <c r="B14" s="72"/>
+      <c r="C14" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74">
         <v>3</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="89" t="s">
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="90"/>
+      <c r="K14" s="77"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="84">
+      <c r="A15" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B15" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87">
+      <c r="B15" s="72"/>
+      <c r="C15" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74">
         <v>3</v>
       </c>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="89" t="s">
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="90"/>
+      <c r="K15" s="77"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="84">
+      <c r="A16" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B16" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87">
+      <c r="B16" s="72"/>
+      <c r="C16" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74">
         <v>3</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="89" t="s">
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="90"/>
+      <c r="K16" s="77"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="84">
+      <c r="A17" s="71">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B17" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87">
+      <c r="B17" s="72"/>
+      <c r="C17" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74">
         <v>3</v>
       </c>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="89" t="s">
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="90"/>
+      <c r="K17" s="77"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="71">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B18" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87">
+      <c r="B18" s="72"/>
+      <c r="C18" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74">
         <v>3</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="89" t="s">
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="90"/>
+      <c r="K18" s="77"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="84">
+      <c r="A19" s="71">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B19" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="86" t="s">
+      <c r="B19" s="72"/>
+      <c r="C19" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74">
+        <v>3</v>
+      </c>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="77"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="71"/>
+      <c r="B20" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87">
-        <v>3</v>
-      </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="89" t="s">
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="90"/>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="90"/>
+      <c r="K21" s="77"/>
     </row>
     <row r="22" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="84">
+      <c r="A22" s="71">
         <f>A21+1</f>
         <v>1</v>
       </c>
-      <c r="B22" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87">
+      <c r="B22" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74">
         <v>1</v>
       </c>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="89" t="s">
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="90"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="84">
+      <c r="K22" s="77"/>
+    </row>
+    <row r="23" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="71">
         <f>A22+1</f>
         <v>2</v>
       </c>
-      <c r="B23" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="89" t="s">
+      <c r="B23" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74">
+        <v>1</v>
+      </c>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="90"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="84">
+      <c r="K23" s="77"/>
+    </row>
+    <row r="24" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="71">
         <f>A23+1</f>
         <v>3</v>
       </c>
-      <c r="B24" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87">
-        <v>5</v>
-      </c>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="89" t="s">
+      <c r="B24" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74">
+        <v>1</v>
+      </c>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="90"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="84">
+      <c r="K24" s="77"/>
+    </row>
+    <row r="25" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="71">
         <f>A24+1</f>
         <v>4</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87">
+      <c r="D25" s="73"/>
+      <c r="E25" s="74">
         <v>1</v>
       </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="89" t="s">
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="90"/>
+      <c r="K25" s="77"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="84">
+      <c r="A26" s="71">
         <f>A25+1</f>
         <v>5</v>
       </c>
-      <c r="B26" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87">
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74">
         <v>1</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="89" t="s">
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="90"/>
+      <c r="K26" s="77"/>
     </row>
     <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="84">
+      <c r="A28" s="71">
         <f>A26+1</f>
         <v>6</v>
       </c>
-      <c r="B28" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="89" t="s">
+      <c r="B28" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74">
+        <v>3</v>
+      </c>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="90"/>
+      <c r="K28" s="77"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="84">
+      <c r="A29" s="71">
         <f t="shared" ref="A29:A33" si="1">A28+1</f>
         <v>7</v>
       </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="87">
-        <v>1</v>
-      </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="89" t="s">
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="90"/>
+      <c r="K29" s="77"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="84">
+      <c r="A30" s="71">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87">
-        <v>1</v>
-      </c>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="89" t="s">
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="90"/>
+      <c r="K30" s="77"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="84">
+      <c r="A31" s="71">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87">
-        <v>1</v>
-      </c>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="89" t="s">
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="90"/>
+      <c r="K31" s="77"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="84">
+      <c r="A32" s="71">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="89" t="s">
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="90"/>
+      <c r="K32" s="77"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="84">
+      <c r="A33" s="71">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="89" t="s">
+      <c r="B33" s="72"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="90"/>
-    </row>
-    <row r="34" spans="1:11" s="73" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="92"/>
-    </row>
-    <row r="35" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="89" t="s">
+      <c r="K33" s="77"/>
+    </row>
+    <row r="34" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="71"/>
+      <c r="B34" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="79"/>
+    </row>
+    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="71"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="92"/>
-    </row>
-    <row r="36" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="89" t="s">
+      <c r="K35" s="79"/>
+    </row>
+    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="71"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="92"/>
-    </row>
-    <row r="37" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="89" t="s">
+      <c r="K36" s="79"/>
+    </row>
+    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="71"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K37" s="92"/>
-    </row>
-    <row r="38" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="89" t="s">
+      <c r="K37" s="79"/>
+    </row>
+    <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="71"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="92"/>
-    </row>
-    <row r="39" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="89" t="s">
+      <c r="K38" s="79"/>
+    </row>
+    <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="71"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K39" s="92"/>
-    </row>
-    <row r="40" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="93"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="89" t="s">
+      <c r="K39" s="79"/>
+    </row>
+    <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="80"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K40" s="92"/>
-    </row>
-    <row r="41" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="E41" s="65"/>
-    </row>
-    <row r="42" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="E42" s="65"/>
-    </row>
-    <row r="43" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="E43" s="65"/>
-    </row>
-    <row r="44" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="E44" s="65"/>
-    </row>
-    <row r="45" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="E45" s="65"/>
-    </row>
-    <row r="46" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="E46" s="65"/>
-    </row>
-    <row r="47" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="E47" s="65"/>
-    </row>
-    <row r="48" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="E48" s="65"/>
-    </row>
-    <row r="49" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="E49" s="65"/>
-    </row>
-    <row r="50" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="E50" s="65"/>
-    </row>
-    <row r="51" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="E51" s="65"/>
-    </row>
-    <row r="52" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="E52" s="65"/>
-    </row>
-    <row r="53" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
-      <c r="E53" s="65"/>
-    </row>
-    <row r="54" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
-      <c r="E54" s="65"/>
-    </row>
-    <row r="55" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
-      <c r="E55" s="65"/>
-    </row>
-    <row r="56" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
-      <c r="E56" s="65"/>
-    </row>
-    <row r="57" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
-      <c r="E57" s="65"/>
-    </row>
-    <row r="58" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="E58" s="65"/>
-    </row>
-    <row r="59" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="E59" s="65"/>
-    </row>
-    <row r="60" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
-      <c r="E60" s="65"/>
-    </row>
-    <row r="61" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
-      <c r="E61" s="65"/>
-    </row>
-    <row r="62" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
-      <c r="E62" s="65"/>
-    </row>
-    <row r="63" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
-      <c r="E63" s="65"/>
-    </row>
-    <row r="64" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="65"/>
-      <c r="E64" s="65"/>
-    </row>
-    <row r="65" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="65"/>
-      <c r="E65" s="65"/>
-    </row>
-    <row r="66" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
-      <c r="E66" s="65"/>
-    </row>
-    <row r="67" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="65"/>
-      <c r="E67" s="65"/>
-    </row>
-    <row r="68" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
-      <c r="E68" s="65"/>
-    </row>
-    <row r="69" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
-      <c r="E69" s="65"/>
-    </row>
-    <row r="70" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="65"/>
-      <c r="E70" s="65"/>
-    </row>
-    <row r="71" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="65"/>
-      <c r="E71" s="65"/>
-    </row>
-    <row r="72" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="65"/>
-      <c r="E72" s="65"/>
-    </row>
-    <row r="73" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
-      <c r="E73" s="65"/>
-    </row>
-    <row r="74" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="65"/>
-      <c r="E74" s="65"/>
-    </row>
-    <row r="75" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="65"/>
-      <c r="E75" s="65"/>
-    </row>
-    <row r="76" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
-      <c r="E76" s="65"/>
-    </row>
-    <row r="77" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="65"/>
-      <c r="E77" s="65"/>
-    </row>
-    <row r="78" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="65"/>
-      <c r="E78" s="65"/>
-    </row>
-    <row r="79" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="65"/>
-      <c r="E79" s="65"/>
-    </row>
-    <row r="80" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="65"/>
-      <c r="E80" s="65"/>
-    </row>
-    <row r="81" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="65"/>
-      <c r="E81" s="65"/>
-    </row>
-    <row r="82" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="65"/>
-      <c r="E82" s="65"/>
-    </row>
-    <row r="83" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="65"/>
-      <c r="E83" s="65"/>
-    </row>
-    <row r="84" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="65"/>
-      <c r="E84" s="65"/>
-    </row>
-    <row r="85" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
-      <c r="E85" s="65"/>
-    </row>
-    <row r="86" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="65"/>
-      <c r="E86" s="65"/>
-    </row>
-    <row r="87" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="65"/>
-      <c r="E87" s="65"/>
-    </row>
-    <row r="88" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="65"/>
-      <c r="E88" s="65"/>
-    </row>
-    <row r="89" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="65"/>
-      <c r="E89" s="65"/>
-    </row>
-    <row r="90" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="65"/>
-      <c r="E90" s="65"/>
-    </row>
-    <row r="91" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="65"/>
-      <c r="E91" s="65"/>
-    </row>
-    <row r="92" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="65"/>
-      <c r="E92" s="65"/>
-    </row>
-    <row r="93" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="65"/>
-      <c r="E93" s="65"/>
-    </row>
-    <row r="94" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="65"/>
-      <c r="E94" s="65"/>
-    </row>
-    <row r="95" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="65"/>
-      <c r="E95" s="65"/>
-    </row>
-    <row r="96" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="65"/>
-      <c r="E96" s="65"/>
-    </row>
-    <row r="97" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="65"/>
-      <c r="E97" s="65"/>
-    </row>
-    <row r="98" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="65"/>
-      <c r="E98" s="65"/>
-    </row>
-    <row r="99" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="65"/>
-      <c r="E99" s="65"/>
-    </row>
-    <row r="100" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="65"/>
-      <c r="E100" s="65"/>
-    </row>
-    <row r="101" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="65"/>
-      <c r="E101" s="65"/>
-    </row>
-    <row r="102" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="65"/>
-      <c r="E102" s="65"/>
-    </row>
-    <row r="103" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="65"/>
-      <c r="E103" s="65"/>
-    </row>
-    <row r="104" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="65"/>
-      <c r="E104" s="65"/>
-    </row>
-    <row r="105" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="65"/>
-      <c r="E105" s="65"/>
-    </row>
-    <row r="106" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="65"/>
-      <c r="E106" s="65"/>
-    </row>
-    <row r="107" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="65"/>
-      <c r="E107" s="65"/>
-    </row>
-    <row r="108" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="65"/>
-      <c r="E108" s="65"/>
-    </row>
-    <row r="109" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="65"/>
-      <c r="E109" s="65"/>
-    </row>
-    <row r="110" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="65"/>
-      <c r="E110" s="65"/>
-    </row>
-    <row r="111" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="65"/>
-      <c r="E111" s="65"/>
-    </row>
-    <row r="112" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="65"/>
-      <c r="E112" s="65"/>
-    </row>
-    <row r="113" spans="1:5" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="65"/>
-      <c r="E113" s="65"/>
+      <c r="K40" s="79"/>
+    </row>
+    <row r="41" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="55"/>
+      <c r="E41" s="55"/>
+    </row>
+    <row r="42" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="55"/>
+      <c r="E42" s="55"/>
+    </row>
+    <row r="43" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="55"/>
+      <c r="E43" s="55"/>
+    </row>
+    <row r="44" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="55"/>
+      <c r="E44" s="55"/>
+    </row>
+    <row r="45" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="55"/>
+      <c r="E45" s="55"/>
+    </row>
+    <row r="46" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="55"/>
+      <c r="E46" s="55"/>
+    </row>
+    <row r="47" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="55"/>
+      <c r="E47" s="55"/>
+    </row>
+    <row r="48" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="55"/>
+      <c r="E48" s="55"/>
+    </row>
+    <row r="49" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55"/>
+      <c r="E49" s="55"/>
+    </row>
+    <row r="50" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55"/>
+      <c r="E50" s="55"/>
+    </row>
+    <row r="51" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55"/>
+      <c r="E51" s="55"/>
+    </row>
+    <row r="52" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="55"/>
+      <c r="E52" s="55"/>
+    </row>
+    <row r="53" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="55"/>
+      <c r="E53" s="55"/>
+    </row>
+    <row r="54" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="55"/>
+      <c r="E54" s="55"/>
+    </row>
+    <row r="55" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="55"/>
+      <c r="E55" s="55"/>
+    </row>
+    <row r="56" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55"/>
+      <c r="E56" s="55"/>
+    </row>
+    <row r="57" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="55"/>
+      <c r="E57" s="55"/>
+    </row>
+    <row r="58" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
+      <c r="E58" s="55"/>
+    </row>
+    <row r="59" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="55"/>
+      <c r="E59" s="55"/>
+    </row>
+    <row r="60" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="55"/>
+      <c r="E60" s="55"/>
+    </row>
+    <row r="61" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="55"/>
+      <c r="E61" s="55"/>
+    </row>
+    <row r="62" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="55"/>
+      <c r="E62" s="55"/>
+    </row>
+    <row r="63" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="55"/>
+      <c r="E63" s="55"/>
+    </row>
+    <row r="64" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="55"/>
+      <c r="E64" s="55"/>
+    </row>
+    <row r="65" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="55"/>
+      <c r="E65" s="55"/>
+    </row>
+    <row r="66" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="55"/>
+      <c r="E66" s="55"/>
+    </row>
+    <row r="67" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="55"/>
+      <c r="E67" s="55"/>
+    </row>
+    <row r="68" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="55"/>
+      <c r="E68" s="55"/>
+    </row>
+    <row r="69" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="55"/>
+      <c r="E69" s="55"/>
+    </row>
+    <row r="70" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="55"/>
+      <c r="E70" s="55"/>
+    </row>
+    <row r="71" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="55"/>
+      <c r="E71" s="55"/>
+    </row>
+    <row r="72" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="55"/>
+      <c r="E72" s="55"/>
+    </row>
+    <row r="73" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="55"/>
+      <c r="E73" s="55"/>
+    </row>
+    <row r="74" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="55"/>
+      <c r="E74" s="55"/>
+    </row>
+    <row r="75" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="55"/>
+      <c r="E75" s="55"/>
+    </row>
+    <row r="76" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="55"/>
+      <c r="E76" s="55"/>
+    </row>
+    <row r="77" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="55"/>
+      <c r="E77" s="55"/>
+    </row>
+    <row r="78" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="55"/>
+      <c r="E78" s="55"/>
+    </row>
+    <row r="79" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="55"/>
+      <c r="E79" s="55"/>
+    </row>
+    <row r="80" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="55"/>
+      <c r="E80" s="55"/>
+    </row>
+    <row r="81" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="55"/>
+      <c r="E81" s="55"/>
+    </row>
+    <row r="82" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="55"/>
+      <c r="E82" s="55"/>
+    </row>
+    <row r="83" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="55"/>
+      <c r="E83" s="55"/>
+    </row>
+    <row r="84" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="55"/>
+      <c r="E84" s="55"/>
+    </row>
+    <row r="85" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="55"/>
+      <c r="E85" s="55"/>
+    </row>
+    <row r="86" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="55"/>
+      <c r="E86" s="55"/>
+    </row>
+    <row r="87" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="55"/>
+      <c r="E87" s="55"/>
+    </row>
+    <row r="88" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="55"/>
+      <c r="E88" s="55"/>
+    </row>
+    <row r="89" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="55"/>
+      <c r="E89" s="55"/>
+    </row>
+    <row r="90" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="55"/>
+      <c r="E90" s="55"/>
+    </row>
+    <row r="91" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="55"/>
+      <c r="E91" s="55"/>
+    </row>
+    <row r="92" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="55"/>
+      <c r="E92" s="55"/>
+    </row>
+    <row r="93" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="55"/>
+      <c r="E93" s="55"/>
+    </row>
+    <row r="94" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="55"/>
+      <c r="E94" s="55"/>
+    </row>
+    <row r="95" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="55"/>
+      <c r="E95" s="55"/>
+    </row>
+    <row r="96" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="55"/>
+      <c r="E96" s="55"/>
+    </row>
+    <row r="97" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="55"/>
+      <c r="E97" s="55"/>
+    </row>
+    <row r="98" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="55"/>
+      <c r="E98" s="55"/>
+    </row>
+    <row r="99" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="55"/>
+      <c r="E99" s="55"/>
+    </row>
+    <row r="100" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="55"/>
+      <c r="E100" s="55"/>
+    </row>
+    <row r="101" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="55"/>
+      <c r="E101" s="55"/>
+    </row>
+    <row r="102" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="55"/>
+      <c r="E102" s="55"/>
+    </row>
+    <row r="103" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="55"/>
+      <c r="E103" s="55"/>
+    </row>
+    <row r="104" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="55"/>
+      <c r="E104" s="55"/>
+    </row>
+    <row r="105" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="55"/>
+      <c r="E105" s="55"/>
+    </row>
+    <row r="106" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="55"/>
+      <c r="E106" s="55"/>
+    </row>
+    <row r="107" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="55"/>
+      <c r="E107" s="55"/>
+    </row>
+    <row r="108" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="55"/>
+      <c r="E108" s="55"/>
+    </row>
+    <row r="109" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="55"/>
+      <c r="E109" s="55"/>
+    </row>
+    <row r="110" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="55"/>
+      <c r="E110" s="55"/>
+    </row>
+    <row r="111" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="55"/>
+      <c r="E111" s="55"/>
+    </row>
+    <row r="112" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="55"/>
+      <c r="E112" s="55"/>
+    </row>
+    <row r="113" spans="1:5" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="55"/>
+      <c r="E113" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="10">
